--- a/src/test/resources/Excel/testData.xlsx
+++ b/src/test/resources/Excel/testData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Projects\1st Project\POMWithPagefactory\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2492732-C91F-4A07-B155-5F801FFCE1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB30251-7937-4605-AF72-7415ADE242BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{10FB8DF3-71F3-4C75-9970-4FDA8251D932}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{10FB8DF3-71F3-4C75-9970-4FDA8251D932}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Suite" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="testCaseLogin" sheetId="1" r:id="rId2"/>
     <sheet name="flightSearchTest" sheetId="4" r:id="rId3"/>
+    <sheet name="hotelAndFlightTest" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -99,6 +100,54 @@
   </si>
   <si>
     <t>02-12-2020</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>departing2</t>
+  </si>
+  <si>
+    <t>returning2</t>
+  </si>
+  <si>
+    <t>age1</t>
+  </si>
+  <si>
+    <t>age2</t>
+  </si>
+  <si>
+    <t>checkin</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>06-11-2020</t>
+  </si>
+  <si>
+    <t>13-11-2020</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Qatar National Convention Centre, Al Rayyan, Qatar</t>
+  </si>
+  <si>
+    <t>12-06-2020</t>
+  </si>
+  <si>
+    <t>22-06-2020</t>
   </si>
 </sst>
 </file>
@@ -134,10 +183,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A0AA3-D9FA-43C4-B451-85DCF6B4ABAF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -544,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3252B1-03C9-4B16-9827-4341D0ABF315}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,4 +664,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007FDB38-104D-44DF-96C4-02062ADF6547}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>